--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Itgb8</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H2">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I2">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J2">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.12087120104923</v>
+        <v>0.0057055</v>
       </c>
       <c r="N2">
-        <v>1.12087120104923</v>
+        <v>0.011411</v>
       </c>
       <c r="O2">
-        <v>0.07531660040518587</v>
+        <v>0.000334938228146736</v>
       </c>
       <c r="P2">
-        <v>0.07531660040518587</v>
+        <v>0.000321009433024368</v>
       </c>
       <c r="Q2">
-        <v>3.146667438383611</v>
+        <v>0.0187912639425</v>
       </c>
       <c r="R2">
-        <v>3.146667438383611</v>
+        <v>0.07516505577</v>
       </c>
       <c r="S2">
-        <v>0.005270121799761228</v>
+        <v>2.498239498547185E-05</v>
       </c>
       <c r="T2">
-        <v>0.005270121799761228</v>
+        <v>2.095105834853898E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H3">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I3">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J3">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.7612556477358</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N3">
-        <v>13.7612556477358</v>
+        <v>3.947929</v>
       </c>
       <c r="O3">
-        <v>0.9246833995948142</v>
+        <v>0.07725366424848044</v>
       </c>
       <c r="P3">
-        <v>0.9246833995948142</v>
+        <v>0.1110614713794111</v>
       </c>
       <c r="Q3">
-        <v>38.63253424431673</v>
+        <v>4.334214113005</v>
       </c>
       <c r="R3">
-        <v>38.63253424431673</v>
+        <v>26.00528467803001</v>
       </c>
       <c r="S3">
-        <v>0.06470278950278287</v>
+        <v>0.005762201481178915</v>
       </c>
       <c r="T3">
-        <v>0.06470278950278287</v>
+        <v>0.007248557605371059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.88151546952529</v>
+        <v>3.293535</v>
       </c>
       <c r="H4">
-        <v>3.88151546952529</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I4">
-        <v>0.09674669318312853</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J4">
-        <v>0.09674669318312853</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.12087120104923</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N4">
-        <v>1.12087120104923</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O4">
-        <v>0.07531660040518587</v>
+        <v>0.000177365705601146</v>
       </c>
       <c r="P4">
-        <v>0.07531660040518587</v>
+        <v>0.0002549846201851609</v>
       </c>
       <c r="Q4">
-        <v>4.350678906217978</v>
+        <v>0.00995086708</v>
       </c>
       <c r="R4">
-        <v>4.350678906217978</v>
+        <v>0.05970520248</v>
       </c>
       <c r="S4">
-        <v>0.007286632030996811</v>
+        <v>1.322936512419693E-05</v>
       </c>
       <c r="T4">
-        <v>0.007286632030996811</v>
+        <v>1.664187125327818E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.88151546952529</v>
+        <v>3.293535</v>
       </c>
       <c r="H5">
-        <v>3.88151546952529</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I5">
-        <v>0.09674669318312853</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J5">
-        <v>0.09674669318312853</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.7612556477358</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N5">
-        <v>13.7612556477358</v>
+        <v>0.046774</v>
       </c>
       <c r="O5">
-        <v>0.9246833995948142</v>
+        <v>0.0009152806171434249</v>
       </c>
       <c r="P5">
-        <v>0.9246833995948142</v>
+        <v>0.001315826414887546</v>
       </c>
       <c r="Q5">
-        <v>53.41452667677877</v>
+        <v>0.05135060203</v>
       </c>
       <c r="R5">
-        <v>53.41452667677877</v>
+        <v>0.30810361218</v>
       </c>
       <c r="S5">
-        <v>0.08946006115213173</v>
+        <v>6.826901195048405E-05</v>
       </c>
       <c r="T5">
-        <v>0.08946006115213173</v>
+        <v>8.587895917926232E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.66838340531167</v>
+        <v>3.293535</v>
       </c>
       <c r="H6">
-        <v>5.66838340531167</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I6">
-        <v>0.1412843397027848</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J6">
-        <v>0.1412843397027848</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.12087120104923</v>
+        <v>0.1436843333333333</v>
       </c>
       <c r="N6">
-        <v>1.12087120104923</v>
+        <v>0.431053</v>
       </c>
       <c r="O6">
-        <v>0.07531660040518587</v>
+        <v>0.008434909476664915</v>
       </c>
       <c r="P6">
-        <v>0.07531660040518587</v>
+        <v>0.01212620095815028</v>
       </c>
       <c r="Q6">
-        <v>6.353527715519216</v>
+        <v>0.473229380785</v>
       </c>
       <c r="R6">
-        <v>6.353527715519216</v>
+        <v>2.839376284710001</v>
       </c>
       <c r="S6">
-        <v>0.01064105615690518</v>
+        <v>0.0006291435927714543</v>
       </c>
       <c r="T6">
-        <v>0.01064105615690518</v>
+        <v>0.0007914307733163415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.66838340531167</v>
+        <v>3.293535</v>
       </c>
       <c r="H7">
-        <v>5.66838340531167</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I7">
-        <v>0.1412843397027848</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J7">
-        <v>0.1412843397027848</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.7612556477358</v>
+        <v>15.5505055</v>
       </c>
       <c r="N7">
-        <v>13.7612556477358</v>
+        <v>31.101011</v>
       </c>
       <c r="O7">
-        <v>0.9246833995948142</v>
+        <v>0.9128838417239634</v>
       </c>
       <c r="P7">
-        <v>0.9246833995948142</v>
+        <v>0.8749205071943416</v>
       </c>
       <c r="Q7">
-        <v>78.0040731498771</v>
+        <v>51.2161341319425</v>
       </c>
       <c r="R7">
-        <v>78.0040731498771</v>
+        <v>204.86453652777</v>
       </c>
       <c r="S7">
-        <v>0.1306432835458797</v>
+        <v>0.06809024110503066</v>
       </c>
       <c r="T7">
-        <v>0.1306432835458797</v>
+        <v>0.05710271634033412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.763154554531</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H8">
-        <v>27.763154554531</v>
+        <v>13.025402</v>
       </c>
       <c r="I8">
-        <v>0.6919960558115424</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J8">
-        <v>0.6919960558115424</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.12087120104923</v>
+        <v>0.0057055</v>
       </c>
       <c r="N8">
-        <v>1.12087120104923</v>
+        <v>0.011411</v>
       </c>
       <c r="O8">
-        <v>0.07531660040518587</v>
+        <v>0.000334938228146736</v>
       </c>
       <c r="P8">
-        <v>0.07531660040518587</v>
+        <v>0.000321009433024368</v>
       </c>
       <c r="Q8">
-        <v>31.11892039045257</v>
+        <v>0.02477214370366667</v>
       </c>
       <c r="R8">
-        <v>31.11892039045257</v>
+        <v>0.148632862222</v>
       </c>
       <c r="S8">
-        <v>0.05211879041752264</v>
+        <v>3.293378670724666E-05</v>
       </c>
       <c r="T8">
-        <v>0.05211879041752264</v>
+        <v>4.142903556743382E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.341800666666667</v>
+      </c>
+      <c r="H9">
+        <v>13.025402</v>
+      </c>
+      <c r="I9">
+        <v>0.09832794210883093</v>
+      </c>
+      <c r="J9">
+        <v>0.1290586235336235</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.947929</v>
+      </c>
+      <c r="O9">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P9">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q9">
+        <v>5.713706921384222</v>
+      </c>
+      <c r="R9">
+        <v>51.423362292458</v>
+      </c>
+      <c r="S9">
+        <v>0.007596193825919647</v>
+      </c>
+      <c r="T9">
+        <v>0.01433344062384572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.341800666666667</v>
+      </c>
+      <c r="H10">
+        <v>13.025402</v>
+      </c>
+      <c r="I10">
+        <v>0.09832794210883093</v>
+      </c>
+      <c r="J10">
+        <v>0.1290586235336235</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P10">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q10">
+        <v>0.01311802708088889</v>
+      </c>
+      <c r="R10">
+        <v>0.118062243728</v>
+      </c>
+      <c r="S10">
+        <v>1.744000483244143E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.290796410334065E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.341800666666667</v>
+      </c>
+      <c r="H11">
+        <v>13.025402</v>
+      </c>
+      <c r="I11">
+        <v>0.09832794210883093</v>
+      </c>
+      <c r="J11">
+        <v>0.1290586235336235</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.046774</v>
+      </c>
+      <c r="O11">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P11">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q11">
+        <v>0.06769446146088889</v>
+      </c>
+      <c r="R11">
+        <v>0.609250153148</v>
+      </c>
+      <c r="S11">
+        <v>8.999765953581373E-05</v>
+      </c>
+      <c r="T11">
+        <v>0.0001698187459145693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.341800666666667</v>
+      </c>
+      <c r="H12">
+        <v>13.025402</v>
+      </c>
+      <c r="I12">
+        <v>0.09832794210883093</v>
+      </c>
+      <c r="J12">
+        <v>0.1290586235336235</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.431053</v>
+      </c>
+      <c r="O12">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P12">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q12">
+        <v>0.6238487342562222</v>
+      </c>
+      <c r="R12">
+        <v>5.614638608306</v>
+      </c>
+      <c r="S12">
+        <v>0.0008293872907147371</v>
+      </c>
+      <c r="T12">
+        <v>0.001564990804350982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.341800666666667</v>
+      </c>
+      <c r="H13">
+        <v>13.025402</v>
+      </c>
+      <c r="I13">
+        <v>0.09832794210883093</v>
+      </c>
+      <c r="J13">
+        <v>0.1290586235336235</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.5505055</v>
+      </c>
+      <c r="N13">
+        <v>31.101011</v>
+      </c>
+      <c r="O13">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P13">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q13">
+        <v>67.51719514690367</v>
+      </c>
+      <c r="R13">
+        <v>405.103170881422</v>
+      </c>
+      <c r="S13">
+        <v>0.08976198954112105</v>
+      </c>
+      <c r="T13">
+        <v>0.1129160363598414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.30358</v>
+      </c>
+      <c r="I14">
+        <v>0.002291706364640331</v>
+      </c>
+      <c r="J14">
+        <v>0.003007939173956966</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0057055</v>
+      </c>
+      <c r="N14">
+        <v>0.011411</v>
+      </c>
+      <c r="O14">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P14">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q14">
+        <v>0.0005773585633333334</v>
+      </c>
+      <c r="R14">
+        <v>0.00346415138</v>
+      </c>
+      <c r="S14">
+        <v>7.675800692052301E-07</v>
+      </c>
+      <c r="T14">
+        <v>9.655768488037112E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.30358</v>
+      </c>
+      <c r="I15">
+        <v>0.002291706364640331</v>
+      </c>
+      <c r="J15">
+        <v>0.003007939173956966</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.947929</v>
+      </c>
+      <c r="O15">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P15">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q15">
+        <v>0.1331680317577778</v>
+      </c>
+      <c r="R15">
+        <v>1.19851228582</v>
+      </c>
+      <c r="S15">
+        <v>0.0001770427140500298</v>
+      </c>
+      <c r="T15">
+        <v>0.000334066150479431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.30358</v>
+      </c>
+      <c r="I16">
+        <v>0.002291706364640331</v>
+      </c>
+      <c r="J16">
+        <v>0.003007939173956966</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P16">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q16">
+        <v>0.0003057387911111111</v>
+      </c>
+      <c r="R16">
+        <v>0.00275164912</v>
+      </c>
+      <c r="S16">
+        <v>4.064701163950695E-07</v>
+      </c>
+      <c r="T16">
+        <v>7.669782278114836E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.30358</v>
+      </c>
+      <c r="I17">
+        <v>0.002291706364640331</v>
+      </c>
+      <c r="J17">
+        <v>0.003007939173956966</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.046774</v>
+      </c>
+      <c r="O17">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P17">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q17">
+        <v>0.001577738991111111</v>
+      </c>
+      <c r="R17">
+        <v>0.01419965092</v>
+      </c>
+      <c r="S17">
+        <v>2.097554415739517E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.957925819467602E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>27.763154554531</v>
-      </c>
-      <c r="H9">
-        <v>27.763154554531</v>
-      </c>
-      <c r="I9">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="J9">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>13.7612556477358</v>
-      </c>
-      <c r="N9">
-        <v>13.7612556477358</v>
-      </c>
-      <c r="O9">
-        <v>0.9246833995948142</v>
-      </c>
-      <c r="P9">
-        <v>0.9246833995948142</v>
-      </c>
-      <c r="Q9">
-        <v>382.0558674125016</v>
-      </c>
-      <c r="R9">
-        <v>382.0558674125016</v>
-      </c>
-      <c r="S9">
-        <v>0.6398772653940198</v>
-      </c>
-      <c r="T9">
-        <v>0.6398772653940198</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.30358</v>
+      </c>
+      <c r="I18">
+        <v>0.002291706364640331</v>
+      </c>
+      <c r="J18">
+        <v>0.003007939173956966</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.431053</v>
+      </c>
+      <c r="O18">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P18">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q18">
+        <v>0.01453989663777778</v>
+      </c>
+      <c r="R18">
+        <v>0.13085906974</v>
+      </c>
+      <c r="S18">
+        <v>1.933033573283803E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.647487489329474E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.30358</v>
+      </c>
+      <c r="I19">
+        <v>0.002291706364640331</v>
+      </c>
+      <c r="J19">
+        <v>0.003007939173956966</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.5505055</v>
+      </c>
+      <c r="N19">
+        <v>31.101011</v>
+      </c>
+      <c r="O19">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P19">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q19">
+        <v>1.573607486563333</v>
+      </c>
+      <c r="R19">
+        <v>9.44164491938</v>
+      </c>
+      <c r="S19">
+        <v>0.002092061710256124</v>
+      </c>
+      <c r="T19">
+        <v>0.002631707667688157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H20">
+        <v>24.511791</v>
+      </c>
+      <c r="I20">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J20">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0057055</v>
+      </c>
+      <c r="N20">
+        <v>0.011411</v>
+      </c>
+      <c r="O20">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P20">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q20">
+        <v>0.0466173411835</v>
+      </c>
+      <c r="R20">
+        <v>0.279704047101</v>
+      </c>
+      <c r="S20">
+        <v>6.197629037526892E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.796303416666175E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H21">
+        <v>24.511791</v>
+      </c>
+      <c r="I21">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J21">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N21">
+        <v>3.947929</v>
+      </c>
+      <c r="O21">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P21">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q21">
+        <v>10.75231228120433</v>
+      </c>
+      <c r="R21">
+        <v>96.77081053083901</v>
+      </c>
+      <c r="S21">
+        <v>0.01429486133759502</v>
+      </c>
+      <c r="T21">
+        <v>0.02697331728284592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H22">
+        <v>24.511791</v>
+      </c>
+      <c r="I22">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J22">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P22">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q22">
+        <v>0.02468609706933333</v>
+      </c>
+      <c r="R22">
+        <v>0.222174873624</v>
+      </c>
+      <c r="S22">
+        <v>3.281939041050668E-05</v>
+      </c>
+      <c r="T22">
+        <v>6.192769623053388E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H23">
+        <v>24.511791</v>
+      </c>
+      <c r="I23">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J23">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.046774</v>
+      </c>
+      <c r="O23">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P23">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q23">
+        <v>0.1273905013593334</v>
+      </c>
+      <c r="R23">
+        <v>1.146514512234</v>
+      </c>
+      <c r="S23">
+        <v>0.0001693616689167078</v>
+      </c>
+      <c r="T23">
+        <v>0.0003195726018851492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H24">
+        <v>24.511791</v>
+      </c>
+      <c r="I24">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J24">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.431053</v>
+      </c>
+      <c r="O24">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P24">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q24">
+        <v>1.173986782880333</v>
+      </c>
+      <c r="R24">
+        <v>10.565881045923</v>
+      </c>
+      <c r="S24">
+        <v>0.001560778540889247</v>
+      </c>
+      <c r="T24">
+        <v>0.002945070525514158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H25">
+        <v>24.511791</v>
+      </c>
+      <c r="I25">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J25">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.5505055</v>
+      </c>
+      <c r="N25">
+        <v>31.101011</v>
+      </c>
+      <c r="O25">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P25">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q25">
+        <v>127.0569135867835</v>
+      </c>
+      <c r="R25">
+        <v>762.3414815207011</v>
+      </c>
+      <c r="S25">
+        <v>0.1689181744545117</v>
+      </c>
+      <c r="T25">
+        <v>0.2124905076865063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>28.2492</v>
+      </c>
+      <c r="H26">
+        <v>56.4984</v>
+      </c>
+      <c r="I26">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J26">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0057055</v>
+      </c>
+      <c r="N26">
+        <v>0.011411</v>
+      </c>
+      <c r="O26">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P26">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q26">
+        <v>0.1611758106</v>
+      </c>
+      <c r="R26">
+        <v>0.6447032424</v>
+      </c>
+      <c r="S26">
+        <v>0.0002142781760095433</v>
+      </c>
+      <c r="T26">
+        <v>0.0001797007280929297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>28.2492</v>
+      </c>
+      <c r="H27">
+        <v>56.4984</v>
+      </c>
+      <c r="I27">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J27">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N27">
+        <v>3.947929</v>
+      </c>
+      <c r="O27">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P27">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q27">
+        <v>37.1752786356</v>
+      </c>
+      <c r="R27">
+        <v>223.0516718136</v>
+      </c>
+      <c r="S27">
+        <v>0.04942336488973683</v>
+      </c>
+      <c r="T27">
+        <v>0.06217208971686899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>28.2492</v>
+      </c>
+      <c r="H28">
+        <v>56.4984</v>
+      </c>
+      <c r="I28">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J28">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P28">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q28">
+        <v>0.0853502496</v>
+      </c>
+      <c r="R28">
+        <v>0.5121014976</v>
+      </c>
+      <c r="S28">
+        <v>0.0001134704751176058</v>
+      </c>
+      <c r="T28">
+        <v>0.0001427401103701967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>28.2492</v>
+      </c>
+      <c r="H29">
+        <v>56.4984</v>
+      </c>
+      <c r="I29">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J29">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.046774</v>
+      </c>
+      <c r="O29">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P29">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q29">
+        <v>0.4404426936</v>
+      </c>
+      <c r="R29">
+        <v>2.6426561616</v>
+      </c>
+      <c r="S29">
+        <v>0.0005855547223246797</v>
+      </c>
+      <c r="T29">
+        <v>0.0007365981820890979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>28.2492</v>
+      </c>
+      <c r="H30">
+        <v>56.4984</v>
+      </c>
+      <c r="I30">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J30">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.431053</v>
+      </c>
+      <c r="O30">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P30">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q30">
+        <v>4.058967469200001</v>
+      </c>
+      <c r="R30">
+        <v>24.3538048152</v>
+      </c>
+      <c r="S30">
+        <v>0.005396269716556637</v>
+      </c>
+      <c r="T30">
+        <v>0.006788233980075511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>28.2492</v>
+      </c>
+      <c r="H31">
+        <v>56.4984</v>
+      </c>
+      <c r="I31">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J31">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.5505055</v>
+      </c>
+      <c r="N31">
+        <v>31.101011</v>
+      </c>
+      <c r="O31">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P31">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q31">
+        <v>439.2893399706001</v>
+      </c>
+      <c r="R31">
+        <v>1757.1573598824</v>
+      </c>
+      <c r="S31">
+        <v>0.5840213749130438</v>
+      </c>
+      <c r="T31">
+        <v>0.4897795391399717</v>
       </c>
     </row>
   </sheetData>
